--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8893,6 +8893,137 @@
         <v>354.75</v>
       </c>
       <c r="G322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>332.0518181818182</v>
+      </c>
+      <c r="C323" t="n">
+        <v>321.33</v>
+      </c>
+      <c r="D323" t="n">
+        <v>335.22</v>
+      </c>
+      <c r="E323" t="n">
+        <v>342.54</v>
+      </c>
+      <c r="F323" t="n">
+        <v>353.94</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>331.84</v>
+      </c>
+      <c r="D324" t="n">
+        <v>347.9433333333333</v>
+      </c>
+      <c r="E324" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="F324" t="n">
+        <v>364.0266666666666</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>342.6745454545455</v>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="n">
+        <v>357.065</v>
+      </c>
+      <c r="F325" t="n">
+        <v>365.42</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>342.7209090909091</v>
+      </c>
+      <c r="C326" t="n">
+        <v>335.36</v>
+      </c>
+      <c r="D326" t="n">
+        <v>342.5266666666667</v>
+      </c>
+      <c r="E326" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="F326" t="n">
+        <v>366.1833333333333</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>327.4481818181818</v>
+      </c>
+      <c r="C327" t="n">
+        <v>322.85</v>
+      </c>
+      <c r="D327" t="n">
+        <v>333.4933333333333</v>
+      </c>
+      <c r="E327" t="n">
+        <v>340.78</v>
+      </c>
+      <c r="F327" t="n">
+        <v>351.2566666666667</v>
+      </c>
+      <c r="G327" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8909,7 +9040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12247,6 +12378,56 @@
       </c>
       <c r="B333" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -12415,28 +12596,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2721841919288314</v>
+        <v>0.2677561732304203</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03856304054782167</v>
+        <v>0.03843023042337157</v>
       </c>
       <c r="M2" t="n">
-        <v>7.108622657858924</v>
+        <v>7.082223679503904</v>
       </c>
       <c r="N2" t="n">
-        <v>88.39072820802156</v>
+        <v>87.54173107987164</v>
       </c>
       <c r="O2" t="n">
-        <v>9.401634337072547</v>
+        <v>9.356373821084301</v>
       </c>
       <c r="P2" t="n">
-        <v>330.4777988857884</v>
+        <v>330.5235370467718</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12492,28 +12673,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1799197238201048</v>
+        <v>0.172018757890329</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01606422801660445</v>
+        <v>0.01505041034256893</v>
       </c>
       <c r="M3" t="n">
-        <v>7.562603656826184</v>
+        <v>7.540843288049637</v>
       </c>
       <c r="N3" t="n">
-        <v>93.93398762470937</v>
+        <v>93.26093699188868</v>
       </c>
       <c r="O3" t="n">
-        <v>9.69195478862285</v>
+        <v>9.657170237284248</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1296800438444</v>
+        <v>326.2111253039772</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12569,28 +12750,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1268040945460235</v>
+        <v>0.116314641575372</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009988987783053349</v>
+        <v>0.008606446582130389</v>
       </c>
       <c r="M4" t="n">
-        <v>6.630895167233118</v>
+        <v>6.619722220535122</v>
       </c>
       <c r="N4" t="n">
-        <v>75.20463443862543</v>
+        <v>74.81785550151675</v>
       </c>
       <c r="O4" t="n">
-        <v>8.672060564746157</v>
+        <v>8.649731527713259</v>
       </c>
       <c r="P4" t="n">
-        <v>340.2246438726918</v>
+        <v>340.3329449966518</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12646,28 +12827,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1257935220678002</v>
+        <v>0.1357470923564432</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008164543774998312</v>
+        <v>0.009728812528136066</v>
       </c>
       <c r="M5" t="n">
-        <v>7.439199342711267</v>
+        <v>7.453713959848264</v>
       </c>
       <c r="N5" t="n">
-        <v>90.27247331390285</v>
+        <v>89.90608611534964</v>
       </c>
       <c r="O5" t="n">
-        <v>9.501182732370895</v>
+        <v>9.48188199227082</v>
       </c>
       <c r="P5" t="n">
-        <v>345.1506189333742</v>
+        <v>345.0470544507605</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12723,28 +12904,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.288948892016505</v>
+        <v>0.3047694538462194</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03945451337958794</v>
+        <v>0.04485457162900897</v>
       </c>
       <c r="M6" t="n">
-        <v>7.947040891104096</v>
+        <v>7.931841038697931</v>
       </c>
       <c r="N6" t="n">
-        <v>96.1548897428498</v>
+        <v>95.52402983427793</v>
       </c>
       <c r="O6" t="n">
-        <v>9.805859969571756</v>
+        <v>9.773639538794027</v>
       </c>
       <c r="P6" t="n">
-        <v>348.3828927825459</v>
+        <v>348.2192843517915</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12781,7 +12962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24219,6 +24400,183 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.50328833298017,174.46923663893105</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.50401140178116,174.4694218228598</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.50466702146703,174.46986582703235</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.505331620141455,174.47030164544734</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-35.50590339221027,174.4708691569863</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.50327780844604,174.4692724073254</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.50397932305951,174.469530845223</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.504624643401534,174.4699961689858</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.50526646974203,174.4704548044807</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-35.50585592589945,174.47096400434484</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.50325591027841,174.4693468296957</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.50527119169624,174.47044370388238</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-35.5058493690802,174.4709771061852</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.50325576876706,174.4693473106308</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.50396857926053,174.46956735887736</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.50464268490554,174.46994067891285</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.505270630054156,174.47044502421792</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-35.50584577694656,174.47098428398675</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.50330238417428,174.46918888485618</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.50400676242874,174.46943759013388</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.50467277252738,174.4698481384881</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.50533894226903,174.47028443215578</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-35.505916019554405,174.47084392493693</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -12441,7 +12441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12532,35 +12532,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12619,27 +12624,28 @@
       <c r="P2" t="n">
         <v>330.5235370467718</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.46579218119234 -35.504301772187844, 174.47539506964037 -35.50147607392584)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4657921811923</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.50430177218784</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4753950696404</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.50147607392584</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4705936254164</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.50288892305684</v>
       </c>
     </row>
@@ -12696,27 +12702,28 @@
       <c r="P3" t="n">
         <v>326.2111253039772</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.46608855819656 -35.504992121607884, 174.4756914918541 -35.50216641546859)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4660885581966</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.50499212160788</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4756914918541</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.50216641546859</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4708900250253</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.50357926853823</v>
       </c>
     </row>
@@ -12773,27 +12780,28 @@
       <c r="P4" t="n">
         <v>340.3329449966518</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.4664316737341 -35.50578350114772, 174.47591495196824 -35.50270007644105)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4664316737341</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.50578350114772</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4759149519682</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.50270007644105</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4711733128512</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.50424178879439</v>
       </c>
     </row>
@@ -12850,27 +12858,28 @@
       <c r="P5" t="n">
         <v>345.0470544507605</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.46695144845722 -35.50675664417633, 174.47600403065084 -35.50290575392927)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4669514484572</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.50675664417633</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4760040306508</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.50290575392927</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.471477739554</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.5048311990528</v>
       </c>
     </row>
@@ -12927,27 +12936,28 @@
       <c r="P6" t="n">
         <v>348.2192843517915</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.46754090206048 -35.507568933956556, 174.47624367314467 -35.503213514970106)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4675409020605</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.50756893395656</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4762436731447</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.50321351497011</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4718922876026</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.50539122446333</v>
       </c>
     </row>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9026,6 +9026,33 @@
       <c r="G327" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>347.8463636363636</v>
+      </c>
+      <c r="C328" t="n">
+        <v>336.005</v>
+      </c>
+      <c r="D328" t="n">
+        <v>338.3766666666667</v>
+      </c>
+      <c r="E328" t="n">
+        <v>353.705</v>
+      </c>
+      <c r="F328" t="n">
+        <v>358.9633333333333</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12428,6 +12455,26 @@
       </c>
       <c r="B338" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -12601,28 +12648,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2677561732304203</v>
+        <v>0.2750725579218126</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03843023042337157</v>
+        <v>0.04059390563333565</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082223679503904</v>
+        <v>7.093930014616994</v>
       </c>
       <c r="N2" t="n">
-        <v>87.54173107987164</v>
+        <v>87.61284447479844</v>
       </c>
       <c r="O2" t="n">
-        <v>9.356373821084301</v>
+        <v>9.360173314356867</v>
       </c>
       <c r="P2" t="n">
-        <v>330.5235370467718</v>
+        <v>330.4472185748446</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12679,28 +12726,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.172018757890329</v>
+        <v>0.1758359184736707</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01505041034256893</v>
+        <v>0.01581456204652687</v>
       </c>
       <c r="M3" t="n">
-        <v>7.540843288049637</v>
+        <v>7.53277987130073</v>
       </c>
       <c r="N3" t="n">
-        <v>93.26093699188868</v>
+        <v>93.05073223279874</v>
       </c>
       <c r="O3" t="n">
-        <v>9.657170237284248</v>
+        <v>9.64628074611136</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2111253039772</v>
+        <v>326.1713497467098</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12757,28 +12804,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.116314641575372</v>
+        <v>0.1127430711264709</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008606446582130389</v>
+        <v>0.008143381140320316</v>
       </c>
       <c r="M4" t="n">
-        <v>6.619722220535122</v>
+        <v>6.613726884692557</v>
       </c>
       <c r="N4" t="n">
-        <v>74.81785550151675</v>
+        <v>74.64832236779053</v>
       </c>
       <c r="O4" t="n">
-        <v>8.649731527713259</v>
+        <v>8.639926062634478</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3329449966518</v>
+        <v>340.37010560278</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12835,28 +12882,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1357470923564432</v>
+        <v>0.1394385066870938</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009728812528136066</v>
+        <v>0.01032507378482261</v>
       </c>
       <c r="M5" t="n">
-        <v>7.453713959848264</v>
+        <v>7.447165228235868</v>
       </c>
       <c r="N5" t="n">
-        <v>89.90608611534964</v>
+        <v>89.69755744279688</v>
       </c>
       <c r="O5" t="n">
-        <v>9.48188199227082</v>
+        <v>9.470879444000799</v>
       </c>
       <c r="P5" t="n">
-        <v>345.0470544507605</v>
+        <v>345.0083314352843</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12913,28 +12960,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3047694538462194</v>
+        <v>0.3068896841467884</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04485457162900897</v>
+        <v>0.04576431468177444</v>
       </c>
       <c r="M6" t="n">
-        <v>7.931841038697931</v>
+        <v>7.915565076364073</v>
       </c>
       <c r="N6" t="n">
-        <v>95.52402983427793</v>
+        <v>95.23574277960424</v>
       </c>
       <c r="O6" t="n">
-        <v>9.773639538794027</v>
+        <v>9.758880201109358</v>
       </c>
       <c r="P6" t="n">
-        <v>348.2192843517915</v>
+        <v>348.1971745071847</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12972,7 +13019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24587,6 +24634,43 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.503240124812635,174.46940047752386</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.503966610580285,174.46957404958852</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.504656507456296,174.46989816496273</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.505285170339,174.47041084219143</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.505879753180835,174.47091639261492</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9051,6 +9051,87 @@
         <v>358.9633333333333</v>
       </c>
       <c r="G328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>331.4127272727272</v>
+      </c>
+      <c r="C329" t="n">
+        <v>324.445</v>
+      </c>
+      <c r="D329" t="n">
+        <v>336.6666666666667</v>
+      </c>
+      <c r="E329" t="n">
+        <v>342.765</v>
+      </c>
+      <c r="F329" t="n">
+        <v>345.3533333333333</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>331.7272727272727</v>
+      </c>
+      <c r="C330" t="n">
+        <v>329.305</v>
+      </c>
+      <c r="D330" t="n">
+        <v>343.8366666666667</v>
+      </c>
+      <c r="E330" t="n">
+        <v>339.975</v>
+      </c>
+      <c r="F330" t="n">
+        <v>349.0333333333334</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>326.2018181818182</v>
+      </c>
+      <c r="C331" t="n">
+        <v>321.145</v>
+      </c>
+      <c r="D331" t="n">
+        <v>339.1766666666667</v>
+      </c>
+      <c r="E331" t="n">
+        <v>336.385</v>
+      </c>
+      <c r="F331" t="n">
+        <v>348.3633333333333</v>
+      </c>
+      <c r="G331" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9067,7 +9148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12475,6 +12556,36 @@
       </c>
       <c r="B340" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -12648,28 +12759,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2750725579218126</v>
+        <v>0.2592006868095342</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04059390563333565</v>
+        <v>0.03671772102848203</v>
       </c>
       <c r="M2" t="n">
-        <v>7.093930014616994</v>
+        <v>7.097102306829047</v>
       </c>
       <c r="N2" t="n">
-        <v>87.61284447479844</v>
+        <v>87.38241670802017</v>
       </c>
       <c r="O2" t="n">
-        <v>9.360173314356867</v>
+        <v>9.347856262695752</v>
       </c>
       <c r="P2" t="n">
-        <v>330.4472185748446</v>
+        <v>330.6138810642059</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12726,28 +12837,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1758359184736707</v>
+        <v>0.163948597403868</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01581456204652687</v>
+        <v>0.01402044377071643</v>
       </c>
       <c r="M3" t="n">
-        <v>7.53277987130073</v>
+        <v>7.516675913136501</v>
       </c>
       <c r="N3" t="n">
-        <v>93.05073223279874</v>
+        <v>92.56354707582405</v>
       </c>
       <c r="O3" t="n">
-        <v>9.64628074611136</v>
+        <v>9.620995118792237</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1713497467098</v>
+        <v>326.2959957306554</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12804,28 +12915,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1127430711264709</v>
+        <v>0.1055590677697841</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008143381140320316</v>
+        <v>0.007291637254969507</v>
       </c>
       <c r="M4" t="n">
-        <v>6.613726884692557</v>
+        <v>6.584639247649902</v>
       </c>
       <c r="N4" t="n">
-        <v>74.64832236779053</v>
+        <v>74.10516434902019</v>
       </c>
       <c r="O4" t="n">
-        <v>8.639926062634478</v>
+        <v>8.608435650512826</v>
       </c>
       <c r="P4" t="n">
-        <v>340.37010560278</v>
+        <v>340.445265432293</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12882,28 +12993,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1394385066870938</v>
+        <v>0.1208514897443558</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01032507378482261</v>
+        <v>0.007877551511724756</v>
       </c>
       <c r="M5" t="n">
-        <v>7.447165228235868</v>
+        <v>7.454843360250788</v>
       </c>
       <c r="N5" t="n">
-        <v>89.69755744279688</v>
+        <v>89.63307959223813</v>
       </c>
       <c r="O5" t="n">
-        <v>9.470879444000799</v>
+        <v>9.467474826596485</v>
       </c>
       <c r="P5" t="n">
-        <v>345.0083314352843</v>
+        <v>345.2045751953455</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12960,28 +13071,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3068896841467884</v>
+        <v>0.2890852589536226</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04576431468177444</v>
+        <v>0.04140528800072019</v>
       </c>
       <c r="M6" t="n">
-        <v>7.915565076364073</v>
+        <v>7.91755012153251</v>
       </c>
       <c r="N6" t="n">
-        <v>95.23574277960424</v>
+        <v>95.00849186442881</v>
       </c>
       <c r="O6" t="n">
-        <v>9.758880201109358</v>
+        <v>9.747229958528157</v>
       </c>
       <c r="P6" t="n">
-        <v>348.1971745071847</v>
+        <v>348.3839518672798</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13019,7 +13130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24671,6 +24782,117 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.50329028361111,174.46923000956508</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.50400189415871,174.46945413539643</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.504662203009104,174.469880647162</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.50533068407385,174.47030384600995</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-35.50594379969351,174.4707884144001</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.503289323556665,174.4692332723825</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.5039870604194,174.4695045491617</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.50463832163947,174.46995409897593</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.505342291309525,174.47027655902988</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.5059264822071,174.47082301837568</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.50330618831549,174.469175956173</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.504011966439066,174.46941990381646</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.50465384286935,174.46990636042415</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.505357226776006,174.47024144781432</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-35.50592963511975,174.47081671819646</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9134,6 +9134,33 @@
       <c r="G331" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>330.8754545454545</v>
+      </c>
+      <c r="C332" t="n">
+        <v>322.575</v>
+      </c>
+      <c r="D332" t="n">
+        <v>336.4566666666667</v>
+      </c>
+      <c r="E332" t="n">
+        <v>330.025</v>
+      </c>
+      <c r="F332" t="n">
+        <v>353.9633333333334</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12586,6 +12613,16 @@
       </c>
       <c r="B343" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -12759,28 +12796,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2592006868095342</v>
+        <v>0.2548426507704101</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03671772102848203</v>
+        <v>0.035729201321968</v>
       </c>
       <c r="M2" t="n">
-        <v>7.097102306829047</v>
+        <v>7.094006292161994</v>
       </c>
       <c r="N2" t="n">
-        <v>87.38241670802017</v>
+        <v>87.22923546710419</v>
       </c>
       <c r="O2" t="n">
-        <v>9.347856262695752</v>
+        <v>9.339659280032874</v>
       </c>
       <c r="P2" t="n">
-        <v>330.6138810642059</v>
+        <v>330.6597319584505</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12837,28 +12874,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.163948597403868</v>
+        <v>0.1584810629736527</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01402044377071643</v>
+        <v>0.01317931381955584</v>
       </c>
       <c r="M3" t="n">
-        <v>7.516675913136501</v>
+        <v>7.518449141948716</v>
       </c>
       <c r="N3" t="n">
-        <v>92.56354707582405</v>
+        <v>92.46584658449602</v>
       </c>
       <c r="O3" t="n">
-        <v>9.620995118792237</v>
+        <v>9.615916315385446</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2959957306554</v>
+        <v>326.3534413436936</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12915,28 +12952,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1055590677697841</v>
+        <v>0.1008171415789032</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007291637254969507</v>
+        <v>0.006692266856283546</v>
       </c>
       <c r="M4" t="n">
-        <v>6.584639247649902</v>
+        <v>6.584338439380747</v>
       </c>
       <c r="N4" t="n">
-        <v>74.10516434902019</v>
+        <v>74.00750032370783</v>
       </c>
       <c r="O4" t="n">
-        <v>8.608435650512826</v>
+        <v>8.602761203457169</v>
       </c>
       <c r="P4" t="n">
-        <v>340.445265432293</v>
+        <v>340.495008005769</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12993,28 +13030,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1208514897443558</v>
+        <v>0.1081687212931476</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007877551511724756</v>
+        <v>0.006291262194343283</v>
       </c>
       <c r="M5" t="n">
-        <v>7.454843360250788</v>
+        <v>7.486321394838652</v>
       </c>
       <c r="N5" t="n">
-        <v>89.63307959223813</v>
+        <v>90.41869686841233</v>
       </c>
       <c r="O5" t="n">
-        <v>9.467474826596485</v>
+        <v>9.508874637327612</v>
       </c>
       <c r="P5" t="n">
-        <v>345.2045751953455</v>
+        <v>345.3387273911806</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13071,28 +13108,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2890852589536226</v>
+        <v>0.2877993296452833</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04140528800072019</v>
+        <v>0.04133788776615177</v>
       </c>
       <c r="M6" t="n">
-        <v>7.91755012153251</v>
+        <v>7.897400345753939</v>
       </c>
       <c r="N6" t="n">
-        <v>95.00849186442881</v>
+        <v>94.70806495138758</v>
       </c>
       <c r="O6" t="n">
-        <v>9.747229958528157</v>
+        <v>9.73180686981547</v>
       </c>
       <c r="P6" t="n">
-        <v>348.3839518672798</v>
+        <v>348.3974739215337</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13130,7 +13167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24893,6 +24930,43 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.503291923472695,174.46922443637092</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.50400760178542,174.4694347375022</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.50466290246279,174.46987849585298</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.50538368624096,174.47017924518255</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.50590328240725,174.4708693763954</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9161,6 +9161,87 @@
       <c r="G332" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>348.3927272727273</v>
+      </c>
+      <c r="C333" t="n">
+        <v>336.55</v>
+      </c>
+      <c r="D333" t="n">
+        <v>343.96</v>
+      </c>
+      <c r="E333" t="n">
+        <v>344.47</v>
+      </c>
+      <c r="F333" t="n">
+        <v>353.54</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>333.3427272727272</v>
+      </c>
+      <c r="C334" t="n">
+        <v>327.295</v>
+      </c>
+      <c r="D334" t="n">
+        <v>335.8133333333333</v>
+      </c>
+      <c r="E334" t="n">
+        <v>333.625</v>
+      </c>
+      <c r="F334" t="n">
+        <v>346.4566666666666</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>334.7509090909091</v>
+      </c>
+      <c r="C335" t="n">
+        <v>335.935</v>
+      </c>
+      <c r="D335" t="n">
+        <v>334.45</v>
+      </c>
+      <c r="E335" t="n">
+        <v>338.375</v>
+      </c>
+      <c r="F335" t="n">
+        <v>347.14</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12623,6 +12704,36 @@
       </c>
       <c r="B344" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -12796,28 +12907,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2548426507704101</v>
+        <v>0.2580164359022444</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.035729201321968</v>
+        <v>0.03714641663331886</v>
       </c>
       <c r="M2" t="n">
-        <v>7.094006292161994</v>
+        <v>7.082636357182393</v>
       </c>
       <c r="N2" t="n">
-        <v>87.22923546710419</v>
+        <v>86.85442251603347</v>
       </c>
       <c r="O2" t="n">
-        <v>9.339659280032874</v>
+        <v>9.319572013565509</v>
       </c>
       <c r="P2" t="n">
-        <v>330.6597319584505</v>
+        <v>330.6263557452535</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12874,28 +12985,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1584810629736527</v>
+        <v>0.1641813405521111</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01317931381955584</v>
+        <v>0.01439658860688053</v>
       </c>
       <c r="M3" t="n">
-        <v>7.518449141948716</v>
+        <v>7.492811514868468</v>
       </c>
       <c r="N3" t="n">
-        <v>92.46584658449602</v>
+        <v>91.82471836800626</v>
       </c>
       <c r="O3" t="n">
-        <v>9.615916315385446</v>
+        <v>9.58252150365478</v>
       </c>
       <c r="P3" t="n">
-        <v>326.3534413436936</v>
+        <v>326.2933525762323</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12952,28 +13063,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1008171415789032</v>
+        <v>0.09040936061043123</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006692266856283546</v>
+        <v>0.005478926719678645</v>
       </c>
       <c r="M4" t="n">
-        <v>6.584338439380747</v>
+        <v>6.574055333782126</v>
       </c>
       <c r="N4" t="n">
-        <v>74.00750032370783</v>
+        <v>73.69505418401363</v>
       </c>
       <c r="O4" t="n">
-        <v>8.602761203457169</v>
+        <v>8.584582353499419</v>
       </c>
       <c r="P4" t="n">
-        <v>340.495008005769</v>
+        <v>340.6046065993767</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13030,28 +13141,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1081687212931476</v>
+        <v>0.08926636051238777</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K5" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006291262194343283</v>
+        <v>0.004337926782723933</v>
       </c>
       <c r="M5" t="n">
-        <v>7.486321394838652</v>
+        <v>7.499118925528308</v>
       </c>
       <c r="N5" t="n">
-        <v>90.41869686841233</v>
+        <v>90.54608220972601</v>
       </c>
       <c r="O5" t="n">
-        <v>9.508874637327612</v>
+        <v>9.515570514148166</v>
       </c>
       <c r="P5" t="n">
-        <v>345.3387273911806</v>
+        <v>345.539329703869</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13108,28 +13219,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2877993296452833</v>
+        <v>0.2740017650324224</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04133788776615177</v>
+        <v>0.03820012334511569</v>
       </c>
       <c r="M6" t="n">
-        <v>7.897400345753939</v>
+        <v>7.882012354513256</v>
       </c>
       <c r="N6" t="n">
-        <v>94.70806495138758</v>
+        <v>94.31725364077546</v>
       </c>
       <c r="O6" t="n">
-        <v>9.73180686981547</v>
+        <v>9.711707040514323</v>
       </c>
       <c r="P6" t="n">
-        <v>348.3974739215337</v>
+        <v>348.5430678924913</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13167,7 +13278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24967,6 +25078,117 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.5032384571957,174.46940614501153</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.50396494712149,174.46957970297984</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.50463791084844,174.46995536244233</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.50532359076018,174.47032052138272</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.505905274547594,174.47086539568753</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.50328439287106,174.4692500296836</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.50399319536347,174.46948369902654</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.50466504523335,174.4698719053346</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.50536870918916,174.4702144542245</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.50593860758583,174.47079878932553</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.503280094820795,174.46926463691838</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.503966824235526,174.46957332346483</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.50466958612939,174.46985793889806</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.505348947786075,174.47026091057887</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.50593539192956,174.47080521488286</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9242,6 +9242,60 @@
       <c r="G335" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>330.7481818181818</v>
+      </c>
+      <c r="C336" t="n">
+        <v>332.115</v>
+      </c>
+      <c r="D336" t="n">
+        <v>332.6533333333333</v>
+      </c>
+      <c r="E336" t="n">
+        <v>333.885</v>
+      </c>
+      <c r="F336" t="n">
+        <v>340.1066666666666</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="C337" t="n">
+        <v>324.765</v>
+      </c>
+      <c r="D337" t="n">
+        <v>328.2833333333333</v>
+      </c>
+      <c r="E337" t="n">
+        <v>326.555</v>
+      </c>
+      <c r="F337" t="n">
+        <v>339.0266666666666</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12734,6 +12788,26 @@
       </c>
       <c r="B347" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -12907,28 +12981,28 @@
         <v>0.1296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2580164359022444</v>
+        <v>0.2522347932240537</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03714641663331886</v>
+        <v>0.03597492264332403</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082636357182393</v>
+        <v>7.063442252606095</v>
       </c>
       <c r="N2" t="n">
-        <v>86.85442251603347</v>
+        <v>86.44747450485563</v>
       </c>
       <c r="O2" t="n">
-        <v>9.319572013565509</v>
+        <v>9.297713401952958</v>
       </c>
       <c r="P2" t="n">
-        <v>330.6263557452535</v>
+        <v>330.6876096547521</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12985,28 +13059,28 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1641813405521111</v>
+        <v>0.1613863483899592</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01439658860688053</v>
+        <v>0.01409563195866037</v>
       </c>
       <c r="M3" t="n">
-        <v>7.492811514868468</v>
+        <v>7.468913259744318</v>
       </c>
       <c r="N3" t="n">
-        <v>91.82471836800626</v>
+        <v>91.35492811629524</v>
       </c>
       <c r="O3" t="n">
-        <v>9.58252150365478</v>
+        <v>9.557977197937607</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2933525762323</v>
+        <v>326.3229479340574</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13063,28 +13137,28 @@
         <v>0.064</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09040936061043123</v>
+        <v>0.07340265838861421</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005478926719678645</v>
+        <v>0.003621106324468881</v>
       </c>
       <c r="M4" t="n">
-        <v>6.574055333782126</v>
+        <v>6.611314517198709</v>
       </c>
       <c r="N4" t="n">
-        <v>73.69505418401363</v>
+        <v>74.23510312674313</v>
       </c>
       <c r="O4" t="n">
-        <v>8.584582353499419</v>
+        <v>8.61597952218685</v>
       </c>
       <c r="P4" t="n">
-        <v>340.6046065993767</v>
+        <v>340.7842540530528</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13141,28 +13215,28 @@
         <v>0.0866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08926636051238777</v>
+        <v>0.06567399194758773</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004337926782723933</v>
+        <v>0.002333324849294161</v>
       </c>
       <c r="M5" t="n">
-        <v>7.499118925528308</v>
+        <v>7.557126341163173</v>
       </c>
       <c r="N5" t="n">
-        <v>90.54608220972601</v>
+        <v>92.00310600590421</v>
       </c>
       <c r="O5" t="n">
-        <v>9.515570514148166</v>
+        <v>9.591824957009184</v>
       </c>
       <c r="P5" t="n">
-        <v>345.539329703869</v>
+        <v>345.7906528709207</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13219,28 +13293,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2740017650324224</v>
+        <v>0.2524482601935329</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03820012334511569</v>
+        <v>0.03251925217867413</v>
       </c>
       <c r="M6" t="n">
-        <v>7.882012354513256</v>
+        <v>7.926203422445589</v>
       </c>
       <c r="N6" t="n">
-        <v>94.31725364077546</v>
+        <v>95.3408041777078</v>
       </c>
       <c r="O6" t="n">
-        <v>9.711707040514323</v>
+        <v>9.764261578722058</v>
       </c>
       <c r="P6" t="n">
-        <v>348.5430678924913</v>
+        <v>348.7713120492612</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13278,7 +13352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25189,6 +25263,80 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.503292311933926,174.4692231161557</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.503978483700614,174.46953369785263</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.50467557033961,174.4698395332494</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.50536762751282,174.47021699709924</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.505968489643905,174.47073907863347</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.503279181935795,174.46926773942317</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.50400091745224,174.46945745482188</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.50469012561495,174.4697947655096</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.50539812244531,174.4701453075656</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.50597357194386,174.47072892310973</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -12975,10 +12975,10 @@
         <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0936</v>
+        <v>0.0926</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1296</v>
+        <v>0.1313</v>
       </c>
       <c r="I2" t="n">
         <v>0.2522315979955096</v>
@@ -13050,13 +13050,13 @@
         <v>0.2513327057040186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0736</v>
+        <v>0.075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.1032</v>
       </c>
       <c r="I3" t="n">
         <v>0.1613996599096669</v>
@@ -13128,13 +13128,13 @@
         <v>0.5026654114102467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0571</v>
+        <v>0.0614</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.0794</v>
       </c>
       <c r="I4" t="n">
         <v>0.07341740220156903</v>
@@ -13206,13 +13206,13 @@
         <v>0.753757125765958</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0737</v>
+        <v>0.0611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0866</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.06569247684884229</v>
@@ -13284,13 +13284,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.0999</v>
       </c>
       <c r="I6" t="n">
         <v>0.2524400276075452</v>

--- a/data/nzd0083/nzd0083.xlsx
+++ b/data/nzd0083/nzd0083.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9569,6 +9569,33 @@
       <c r="G338" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="C339" t="n">
+        <v>326.88</v>
+      </c>
+      <c r="D339" t="n">
+        <v>336.79</v>
+      </c>
+      <c r="E339" t="n">
+        <v>335.86</v>
+      </c>
+      <c r="F339" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9583,7 +9610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13091,6 +13118,16 @@
       </c>
       <c r="B350" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -13261,31 +13298,31 @@
         <v>0.0927</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1315</v>
+        <v>0.1314</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2789403246381912</v>
+        <v>0.2764756073651981</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.106066954240731</v>
+        <v>0.1048974600146363</v>
       </c>
       <c r="M2" t="n">
-        <v>4.541623547650608</v>
+        <v>4.539077164118537</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50360560333566</v>
+        <v>33.45058376354996</v>
       </c>
       <c r="O2" t="n">
-        <v>5.788229919702194</v>
+        <v>5.783647963314327</v>
       </c>
       <c r="P2" t="n">
-        <v>330.1998961052252</v>
+        <v>330.2260169005713</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13336,34 +13373,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0752</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1033</v>
+        <v>0.1036</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1947568824731056</v>
+        <v>0.1924982076212878</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05267996350126047</v>
+        <v>0.05180316953067532</v>
       </c>
       <c r="M3" t="n">
-        <v>4.750077164711601</v>
+        <v>4.745889044229461</v>
       </c>
       <c r="N3" t="n">
-        <v>34.84824692869782</v>
+        <v>34.78386120262954</v>
       </c>
       <c r="O3" t="n">
-        <v>5.903240375310649</v>
+        <v>5.897784431685303</v>
       </c>
       <c r="P3" t="n">
-        <v>325.4230168205704</v>
+        <v>325.446954001603</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13414,34 +13451,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0615</v>
+        <v>0.0616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0794</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813941830412333</v>
+        <v>0.09444875589423819</v>
       </c>
       <c r="J4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02649783524307603</v>
+        <v>0.02461482064473153</v>
       </c>
       <c r="M4" t="n">
-        <v>3.52705096441069</v>
+        <v>3.531802356492266</v>
       </c>
       <c r="N4" t="n">
-        <v>18.07829774283195</v>
+        <v>18.12817990433292</v>
       </c>
       <c r="O4" t="n">
-        <v>4.251858151776932</v>
+        <v>4.257720035926848</v>
       </c>
       <c r="P4" t="n">
-        <v>340.1612208897853</v>
+        <v>340.2003341132599</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13498,28 +13535,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09155199733305211</v>
+        <v>0.08403530022275331</v>
       </c>
       <c r="J5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01297241970166019</v>
+        <v>0.01088322232851957</v>
       </c>
       <c r="M5" t="n">
-        <v>4.533111198963447</v>
+        <v>4.545560764316149</v>
       </c>
       <c r="N5" t="n">
-        <v>32.5827693212014</v>
+        <v>32.91514871924899</v>
       </c>
       <c r="O5" t="n">
-        <v>5.708131859128817</v>
+        <v>5.737172536994943</v>
       </c>
       <c r="P5" t="n">
-        <v>345.5681553420773</v>
+        <v>345.6478164492752</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13570,34 +13607,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0742</v>
+        <v>0.0746</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0997</v>
+        <v>0.1022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2790163552921413</v>
+        <v>0.2738468893753028</v>
       </c>
       <c r="J6" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07769869836185028</v>
+        <v>0.07522966116084784</v>
       </c>
       <c r="M6" t="n">
-        <v>5.43927293932687</v>
+        <v>5.445707647099107</v>
       </c>
       <c r="N6" t="n">
-        <v>47.21309277033323</v>
+        <v>47.27620996080647</v>
       </c>
       <c r="O6" t="n">
-        <v>6.871178412058097</v>
+        <v>6.875769772236885</v>
       </c>
       <c r="P6" t="n">
-        <v>348.1110489515374</v>
+        <v>348.1658343675938</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13635,7 +13672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26149,6 +26186,43 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.50328385179964,174.4692518685544</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.50399446203059,174.46947939414747</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.504661792218826,174.46988191062923</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-35.50535941093114,174.47023631316466</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.5059356742799,174.47080465068763</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
